--- a/medicine/Enfance/Mirjam_Pressler/Mirjam_Pressler.xlsx
+++ b/medicine/Enfance/Mirjam_Pressler/Mirjam_Pressler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mirjam Pressler, née le 18 juin 1940 à Darmstadt et morte le 16 janvier 2019 à Landshut[1], est une écrivaine et traductrice allemande.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mirjam Pressler, née le 18 juin 1940 à Darmstadt et morte le 16 janvier 2019 à Landshut, est une écrivaine et traductrice allemande.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fille illégitime d'une mère juive, elle est élevée en famille d'accueil[2],[3]. Enfant, sa seule distraction est la lecture[4]. À l'âge de onze ans, elle est mise en orphelinat catholique[5] puis part étudier la peinture à l'Académie des Beaux-Arts de l'Université Louis-et-Maximilien de Francfort-sur-le-Main et les langues à Munich[6]. Après un mariage raté et quelques années passées dans un kibboutz en Israël, elle revient en Allemagne et s'installe à Munich[7]. Elle tente de lancer une magasin de jean mais, à l'âge de 40 ans, elle écrit et publie son premier roman pour enfants, Bitterschokolade à propos d'une jeune fille victime de boulimie qui se vend à 400 000 exemplaires[7],[8]. Ses romans jeunesse s'intéresse à la vie des adolescents, à leurs problèmes et à leur famille[9]. En tout, elle est l'autrice de plus de 40 ouvrages pour la jeunesse[10].
-En 1991, elle traduit la première édition critique complète (sans les coupures effectuées par Otto Frank) du Journal d'Anne Frank, à la demande de la Maison Anne Frank, édition qui servira de base pour les traductions suivantes[7],[11]. Après cette première traduction, elle écrit une biographie d'Anne Frank pour les enfants puis une biographie de toute la famille Frank[7].
-Grâce à son roman, La promesse d'Hannah, cinq stolpersteine sont posées devant l'ancienne maison des héros de son roman en 2018[3].
-Également traductrice, elle traduit les ouvrages depuis l'hébreu dont ceux d'Amos Oz, de Uri Orlev et Zeruya Shalev ainsi qu'une édition critique du Journal d'Anne Frank[3]. Elle traduit aussi depuis le néerlandais dont Annie M.G. Schmidt, Mies Bouwhuys et Anja Meulenbelt[7].
-Elle meurt le 16 janvier 2019 à Landshut après une longue maladie[12]. Elle est enterrée dans le cimetière de Landshut[13]. Son dernier roman, Dunkles Gold, sort à titre posthume en mars 2019[8].
-En 2020, elle est à nouveau sélectionnée — à titre posthume cette fois — pour représenter son pays, l'Allemagne, pour le Prix Hans-Christian-Andersen, dans la catégorie Auteur[14], prix international danois. Elle a été sélectionnée à plusieurs reprises, dont 2018[15], et a été finaliste en 2014 et 2016[14].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fille illégitime d'une mère juive, elle est élevée en famille d'accueil,. Enfant, sa seule distraction est la lecture. À l'âge de onze ans, elle est mise en orphelinat catholique puis part étudier la peinture à l'Académie des Beaux-Arts de l'Université Louis-et-Maximilien de Francfort-sur-le-Main et les langues à Munich. Après un mariage raté et quelques années passées dans un kibboutz en Israël, elle revient en Allemagne et s'installe à Munich. Elle tente de lancer une magasin de jean mais, à l'âge de 40 ans, elle écrit et publie son premier roman pour enfants, Bitterschokolade à propos d'une jeune fille victime de boulimie qui se vend à 400 000 exemplaires,. Ses romans jeunesse s'intéresse à la vie des adolescents, à leurs problèmes et à leur famille. En tout, elle est l'autrice de plus de 40 ouvrages pour la jeunesse.
+En 1991, elle traduit la première édition critique complète (sans les coupures effectuées par Otto Frank) du Journal d'Anne Frank, à la demande de la Maison Anne Frank, édition qui servira de base pour les traductions suivantes,. Après cette première traduction, elle écrit une biographie d'Anne Frank pour les enfants puis une biographie de toute la famille Frank.
+Grâce à son roman, La promesse d'Hannah, cinq stolpersteine sont posées devant l'ancienne maison des héros de son roman en 2018.
+Également traductrice, elle traduit les ouvrages depuis l'hébreu dont ceux d'Amos Oz, de Uri Orlev et Zeruya Shalev ainsi qu'une édition critique du Journal d'Anne Frank. Elle traduit aussi depuis le néerlandais dont Annie M.G. Schmidt, Mies Bouwhuys et Anja Meulenbelt.
+Elle meurt le 16 janvier 2019 à Landshut après une longue maladie. Elle est enterrée dans le cimetière de Landshut. Son dernier roman, Dunkles Gold, sort à titre posthume en mars 2019.
+En 2020, elle est à nouveau sélectionnée — à titre posthume cette fois — pour représenter son pays, l'Allemagne, pour le Prix Hans-Christian-Andersen, dans la catégorie Auteur, prix international danois. Elle a été sélectionnée à plusieurs reprises, dont 2018, et a été finaliste en 2014 et 2016.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chocolat amer ((de) Bitterschokolade, Beltz &amp; Gelberg, 1980), Pocket, 1998, trad. de Brigitte Déchin
 (de) Kratzer im Lack, Beltz &amp; Gelberg, 1981
@@ -612,21 +628,23 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1994 : Prix de littérature pour la jeunesse allemand pour son travail de traduction
-1995 : Prix de littérature pour la jeunesse allemand pour son roman Wenn das Glück kommt, muß man ihm einen Stuhl hinstellen dans la catégorie du meilleur livre pour enfants[16]
-2001 : Médaille Carl Zuckmayer pour services rendus à la langue allemande[6]
+1995 : Prix de littérature pour la jeunesse allemand pour son roman Wenn das Glück kommt, muß man ihm einen Stuhl hinstellen dans la catégorie du meilleur livre pour enfants
+2001 : Médaille Carl Zuckmayer pour services rendus à la langue allemande
 2002 : Pro meritis scientiae et litterarum
-2004 : Prix du livre allemand[6]
-2004 (international) « Honour List »[17] de l' IBBY pour  Malka Mai
+2004 : Prix du livre allemand
+2004 (international) « Honour List » de l' IBBY pour  Malka Mai
 2010 : Prix de littérature pour la jeunesse allemand pour son œuvre
-2013 : Médaille Ruber-Rosenzweig[8]
-2015 : Prix de la traduction de la Foire du livre de Leipzig pour sa traduction du roman Judas de Amos Oz[9]
-2017 : Prix de littérature de la ville de Munich[18]
-2018 : Prix de la paix de la Fondation Geschwister Korn und Gerstenmann[19]
-2018 : Grand-Croix de l'Ordre du Mérite de la République fédérale d'Allemagne[4]
- Plusieurs sélections Allemagne du Prix Hans-Christian-Andersen, dans la catégorie Auteur, dont 2018[15] et 2020[14] ; et finaliste 2014 et 2016[14].</t>
+2013 : Médaille Ruber-Rosenzweig
+2015 : Prix de la traduction de la Foire du livre de Leipzig pour sa traduction du roman Judas de Amos Oz
+2017 : Prix de littérature de la ville de Munich
+2018 : Prix de la paix de la Fondation Geschwister Korn und Gerstenmann
+2018 : Grand-Croix de l'Ordre du Mérite de la République fédérale d'Allemagne
+ Plusieurs sélections Allemagne du Prix Hans-Christian-Andersen, dans la catégorie Auteur, dont 2018 et 2020 ; et finaliste 2014 et 2016.</t>
         </is>
       </c>
     </row>
